--- a/results/mp/tinybert/toy-spam/confidence/84/stop-words-topk-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/84/stop-words-topk-masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="86">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,55 +49,46 @@
     <t>poor</t>
   </si>
   <si>
-    <t>returned</t>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>waste</t>
   </si>
   <si>
     <t>junk</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>pay</t>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>broken</t>
   </si>
   <si>
     <t>small</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
     <t>plastic</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>paint</t>
+    <t>bad</t>
   </si>
   <si>
     <t>thought</t>
@@ -106,13 +97,13 @@
     <t>difficult</t>
   </si>
   <si>
-    <t>bit</t>
+    <t>size</t>
   </si>
   <si>
     <t>though</t>
   </si>
   <si>
-    <t>size</t>
+    <t>back</t>
   </si>
   <si>
     <t>item</t>
@@ -121,151 +112,154 @@
     <t>money</t>
   </si>
   <si>
+    <t>work</t>
+  </si>
+  <si>
     <t>hard</t>
   </si>
   <si>
     <t>would</t>
   </si>
   <si>
-    <t>work</t>
+    <t>price</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>used</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>product</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>could</t>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>box</t>
   </si>
   <si>
     <t>expected</t>
   </si>
   <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>box</t>
+    <t>use</t>
+  </si>
+  <si>
+    <t>even</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>buy</t>
+    <t>little</t>
   </si>
   <si>
     <t>made</t>
   </si>
   <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>even</t>
+    <t>much</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>get</t>
+    <t>one</t>
   </si>
   <si>
     <t>toy</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
     <t>favorite</t>
   </si>
   <si>
-    <t>awesome</t>
+    <t>classic</t>
   </si>
   <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>classic</t>
+    <t>thank</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>enjoyed</t>
+  </si>
+  <si>
     <t>enjoy</t>
   </si>
   <si>
-    <t>learn</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
     <t>christmas</t>
   </si>
   <si>
     <t>fun</t>
   </si>
   <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
     <t>family</t>
   </si>
   <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>cute</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>daughter</t>
   </si>
   <si>
     <t>playing</t>
@@ -635,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q52"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -643,10 +637,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -704,13 +698,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9782608695652174</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -722,19 +716,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3">
+        <v>0.9076923076923077</v>
+      </c>
+      <c r="L3">
         <v>59</v>
       </c>
-      <c r="K3">
-        <v>0.8928571428571429</v>
-      </c>
-      <c r="L3">
-        <v>50</v>
-      </c>
       <c r="M3">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -754,13 +748,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8636363636363636</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -772,19 +766,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K4">
-        <v>0.8387096774193549</v>
+        <v>0.875</v>
       </c>
       <c r="L4">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="M4">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -796,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -804,13 +798,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8450704225352113</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="C5">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D5">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -822,19 +816,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K5">
-        <v>0.8307692307692308</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="L5">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="M5">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -846,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -854,13 +848,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7894736842105263</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -872,19 +866,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K6">
-        <v>0.78125</v>
+        <v>0.7547169811320755</v>
       </c>
       <c r="L6">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="M6">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -896,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -904,13 +898,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7454545454545455</v>
+        <v>0.7378640776699029</v>
       </c>
       <c r="C7">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="D7">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -922,19 +916,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K7">
-        <v>0.7358490566037735</v>
+        <v>0.75</v>
       </c>
       <c r="L7">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="M7">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -946,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -954,13 +948,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7378640776699029</v>
+        <v>0.734375</v>
       </c>
       <c r="C8">
-        <v>152</v>
+        <v>47</v>
       </c>
       <c r="D8">
-        <v>152</v>
+        <v>47</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -972,19 +966,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K8">
-        <v>0.6542324246771879</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L8">
-        <v>456</v>
+        <v>46</v>
       </c>
       <c r="M8">
-        <v>456</v>
+        <v>46</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -996,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>241</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1004,13 +998,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7364864864864865</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C9">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D9">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1022,19 +1016,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K9">
-        <v>0.6521739130434783</v>
+        <v>0.6212338593974175</v>
       </c>
       <c r="L9">
-        <v>45</v>
+        <v>433</v>
       </c>
       <c r="M9">
-        <v>45</v>
+        <v>433</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1046,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>24</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1054,13 +1048,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.71875</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="C10">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D10">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1072,19 +1066,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K10">
-        <v>0.5705394190871369</v>
+        <v>0.6016597510373444</v>
       </c>
       <c r="L10">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="M10">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1096,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>207</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1104,13 +1098,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7150537634408602</v>
+        <v>0.6134453781512605</v>
       </c>
       <c r="C11">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D11">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1122,19 +1116,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K11">
-        <v>0.5409836065573771</v>
+        <v>0.5660377358490566</v>
       </c>
       <c r="L11">
-        <v>660</v>
+        <v>30</v>
       </c>
       <c r="M11">
-        <v>660</v>
+        <v>30</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1146,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>560</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1154,13 +1148,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6296296296296297</v>
+        <v>0.5740740740740741</v>
       </c>
       <c r="C12">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D12">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1172,19 +1166,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K12">
-        <v>0.4892966360856269</v>
+        <v>0.5361247947454844</v>
       </c>
       <c r="L12">
-        <v>160</v>
+        <v>653</v>
       </c>
       <c r="M12">
-        <v>160</v>
+        <v>655</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1193,10 +1187,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>167</v>
+        <v>565</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1204,13 +1198,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.625</v>
+        <v>0.5542168674698795</v>
       </c>
       <c r="C13">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D13">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1222,19 +1216,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K13">
-        <v>0.4698795180722892</v>
+        <v>0.427710843373494</v>
       </c>
       <c r="L13">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="M13">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1246,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1254,13 +1248,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6134453781512605</v>
+        <v>0.5507246376811594</v>
       </c>
       <c r="C14">
-        <v>73</v>
+        <v>190</v>
       </c>
       <c r="D14">
-        <v>73</v>
+        <v>190</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1272,19 +1266,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>46</v>
+        <v>155</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K14">
-        <v>0.4603174603174603</v>
+        <v>0.4220183486238532</v>
       </c>
       <c r="L14">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="M14">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1296,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>102</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1304,13 +1298,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="C15">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="D15">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1322,19 +1316,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K15">
-        <v>0.4416666666666667</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="L15">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="M15">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1346,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>67</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1354,13 +1348,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5652173913043478</v>
+        <v>0.4842105263157895</v>
       </c>
       <c r="C16">
-        <v>195</v>
+        <v>46</v>
       </c>
       <c r="D16">
-        <v>195</v>
+        <v>46</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1372,19 +1366,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>150</v>
+        <v>49</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K16">
-        <v>0.3064516129032258</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="L16">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="M16">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1396,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>129</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1404,13 +1398,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5275590551181102</v>
+        <v>0.4834123222748815</v>
       </c>
       <c r="C17">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="D17">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1422,19 +1416,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K17">
-        <v>0.3046875</v>
+        <v>0.328125</v>
       </c>
       <c r="L17">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M17">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1446,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1454,13 +1448,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5180722891566265</v>
+        <v>0.4803149606299212</v>
       </c>
       <c r="C18">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="D18">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1472,19 +1466,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K18">
-        <v>0.3015873015873016</v>
+        <v>0.2937062937062937</v>
       </c>
       <c r="L18">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M18">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1496,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>88</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1504,13 +1498,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5071090047393365</v>
+        <v>0.4328358208955224</v>
       </c>
       <c r="C19">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="D19">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1522,31 +1516,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K19">
-        <v>0.3006993006993007</v>
+        <v>0.2822580645161291</v>
       </c>
       <c r="L19">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="M19">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1554,13 +1548,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4921875</v>
+        <v>0.400990099009901</v>
       </c>
       <c r="C20">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="D20">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1572,19 +1566,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K20">
-        <v>0.2735042735042735</v>
+        <v>0.2698412698412698</v>
       </c>
       <c r="L20">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M20">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1596,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1604,13 +1598,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4842105263157895</v>
+        <v>0.3595505617977528</v>
       </c>
       <c r="C21">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D21">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1622,19 +1616,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K21">
-        <v>0.256</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="L21">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M21">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1646,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>93</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1654,13 +1648,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4603174603174603</v>
+        <v>0.3195876288659794</v>
       </c>
       <c r="C22">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="D22">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1672,19 +1666,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>34</v>
+        <v>132</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K22">
-        <v>0.248995983935743</v>
+        <v>0.2570281124497992</v>
       </c>
       <c r="L22">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M22">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1696,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1704,13 +1698,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.405940594059406</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C23">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="D23">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1722,31 +1716,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K23">
-        <v>0.2398945518453427</v>
+        <v>0.2262323943661972</v>
       </c>
       <c r="L23">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="M23">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="N23">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="O23">
-        <v>0.01000000000000001</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P23" t="b">
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>865</v>
+        <v>879</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1754,13 +1748,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3707865168539326</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C24">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D24">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1772,31 +1766,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K24">
-        <v>0.2039106145251397</v>
+        <v>0.1528150134048257</v>
       </c>
       <c r="L24">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="M24">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="N24">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="O24">
-        <v>0.01000000000000001</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>285</v>
+        <v>316</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1804,49 +1798,49 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3265306122448979</v>
+        <v>0.2773722627737226</v>
       </c>
       <c r="C25">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="D25">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>66</v>
+        <v>198</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K25">
-        <v>0.1602605863192182</v>
+        <v>0.1487279843444227</v>
       </c>
       <c r="L25">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="M25">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="N25">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="O25">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>1289</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1854,13 +1848,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3247863247863248</v>
+        <v>0.2753164556962026</v>
       </c>
       <c r="C26">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="D26">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1872,19 +1866,19 @@
         <v>0</v>
       </c>
       <c r="H26">
+        <v>229</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="K26">
-        <v>0.1524064171122995</v>
+        <v>0.1448467966573816</v>
       </c>
       <c r="L26">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="M26">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1896,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1904,13 +1898,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3041237113402062</v>
+        <v>0.2753164556962026</v>
       </c>
       <c r="C27">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="D27">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1922,31 +1916,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>135</v>
+        <v>229</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K27">
-        <v>0.1206225680933852</v>
+        <v>0.1003460207612457</v>
       </c>
       <c r="L27">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M27">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
-        <v>226</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1954,49 +1948,49 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="C28">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="D28">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="E28">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>198</v>
+        <v>146</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K28">
-        <v>0.1021671826625387</v>
+        <v>0.09666666666666666</v>
       </c>
       <c r="L28">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M28">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N28">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O28">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P28" t="b">
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>290</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2004,13 +1998,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2721518987341772</v>
+        <v>0.2462908011869436</v>
       </c>
       <c r="C29">
-        <v>86</v>
+        <v>166</v>
       </c>
       <c r="D29">
-        <v>86</v>
+        <v>166</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2022,31 +2016,31 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>230</v>
+        <v>508</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K29">
-        <v>0.09906291834002677</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L29">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="M29">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="N29">
-        <v>0.9399999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="O29">
-        <v>0.06000000000000005</v>
+        <v>0.15</v>
       </c>
       <c r="P29" t="b">
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>673</v>
+        <v>290</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2054,49 +2048,49 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.27</v>
+        <v>0.2219020172910663</v>
       </c>
       <c r="C30">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="D30">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>146</v>
+        <v>270</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K30">
-        <v>0.06169296987087518</v>
+        <v>0.0856760374832664</v>
       </c>
       <c r="L30">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="M30">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="N30">
-        <v>0.84</v>
+        <v>0.93</v>
       </c>
       <c r="O30">
-        <v>0.16</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P30" t="b">
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>654</v>
+        <v>683</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2104,25 +2098,49 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2644873699851412</v>
+        <v>0.2185792349726776</v>
       </c>
       <c r="C31">
-        <v>178</v>
+        <v>40</v>
       </c>
       <c r="D31">
-        <v>179</v>
+        <v>40</v>
       </c>
       <c r="E31">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>495</v>
+        <v>143</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K31">
+        <v>0.06025824964131994</v>
+      </c>
+      <c r="L31">
+        <v>42</v>
+      </c>
+      <c r="M31">
+        <v>50</v>
+      </c>
+      <c r="N31">
+        <v>0.84</v>
+      </c>
+      <c r="O31">
+        <v>0.16</v>
+      </c>
+      <c r="P31" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>655</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2130,13 +2148,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2531645569620253</v>
+        <v>0.2165605095541401</v>
       </c>
       <c r="C32">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="D32">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2148,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>236</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2156,25 +2174,25 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2228571428571429</v>
+        <v>0.215962441314554</v>
       </c>
       <c r="C33">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D33">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>136</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2182,25 +2200,25 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2206572769953052</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="C34">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D34">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E34">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F34">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>166</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2208,25 +2226,25 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2185430463576159</v>
+        <v>0.1977777777777778</v>
       </c>
       <c r="C35">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D35">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E35">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="F35">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
       </c>
       <c r="H35">
-        <v>354</v>
+        <v>361</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2234,25 +2252,25 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2183908045977012</v>
+        <v>0.1841359773371105</v>
       </c>
       <c r="C36">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D36">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>272</v>
+        <v>288</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2260,25 +2278,25 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2165605095541401</v>
+        <v>0.1673469387755102</v>
       </c>
       <c r="C37">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D37">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>123</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2286,25 +2304,25 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1979166666666667</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C38">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D38">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="G38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2312,25 +2330,25 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1868131868131868</v>
+        <v>0.1570680628272251</v>
       </c>
       <c r="C39">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D39">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E39">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>148</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2338,25 +2356,25 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1810699588477366</v>
+        <v>0.1510416666666667</v>
       </c>
       <c r="C40">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D40">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="E40">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>199</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2364,25 +2382,25 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1780104712041885</v>
+        <v>0.1412742382271468</v>
       </c>
       <c r="C41">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D41">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>157</v>
+        <v>310</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2390,25 +2408,25 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1660377358490566</v>
+        <v>0.1299638989169675</v>
       </c>
       <c r="C42">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D42">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E42">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="F42">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
       </c>
       <c r="H42">
-        <v>221</v>
+        <v>241</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2416,25 +2434,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1534090909090909</v>
+        <v>0.1283018867924528</v>
       </c>
       <c r="C43">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D43">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="E43">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="F43">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>298</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2442,25 +2460,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1273885350318471</v>
+        <v>0.1143497757847534</v>
       </c>
       <c r="C44">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D44">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E44">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="F44">
-        <v>0.9299999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>274</v>
+        <v>395</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2468,25 +2486,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1263736263736264</v>
+        <v>0.1082802547770701</v>
       </c>
       <c r="C45">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D45">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E45">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="F45">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>318</v>
+        <v>280</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2494,25 +2512,25 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1213483146067416</v>
+        <v>0.1009615384615385</v>
       </c>
       <c r="C46">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D46">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E46">
-        <v>0.07000000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="F46">
-        <v>0.9299999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
       </c>
       <c r="H46">
-        <v>391</v>
+        <v>374</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2520,25 +2538,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.111913357400722</v>
+        <v>0.09752066115702479</v>
       </c>
       <c r="C47">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="D47">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="E47">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="F47">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>246</v>
+        <v>546</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2546,25 +2564,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1064891846921797</v>
+        <v>0.09254498714652956</v>
       </c>
       <c r="C48">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D48">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E48">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="F48">
-        <v>0.9</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>537</v>
+        <v>706</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2572,103 +2590,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.09004739336492891</v>
+        <v>0.08962264150943396</v>
       </c>
       <c r="C49">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D49">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="E49">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="F49">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50">
-        <v>0.08254716981132075</v>
-      </c>
-      <c r="C50">
-        <v>35</v>
-      </c>
-      <c r="D50">
-        <v>40</v>
-      </c>
-      <c r="E50">
-        <v>0.12</v>
-      </c>
-      <c r="F50">
-        <v>0.88</v>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51">
-        <v>0.08166409861325115</v>
-      </c>
-      <c r="C51">
-        <v>53</v>
-      </c>
-      <c r="D51">
-        <v>59</v>
-      </c>
-      <c r="E51">
-        <v>0.1</v>
-      </c>
-      <c r="F51">
-        <v>0.9</v>
-      </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52">
-        <v>0.08118556701030928</v>
-      </c>
-      <c r="C52">
-        <v>63</v>
-      </c>
-      <c r="D52">
-        <v>81</v>
-      </c>
-      <c r="E52">
-        <v>0.22</v>
-      </c>
-      <c r="F52">
-        <v>0.78</v>
-      </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52">
-        <v>713</v>
+        <v>579</v>
       </c>
     </row>
   </sheetData>
